--- a/demos/GetDataFromWebForm/data.xlsx
+++ b/demos/GetDataFromWebForm/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\My Drive\TRAINING\CLIENTS\NOBLEPROG\uipath\np-uipath-intro\demos\GetDataFromWebForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B735E198-33B4-4765-A040-0B2A2DCDE65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21503919-A099-4F4E-8064-72DD0DB301C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27285" yWindow="-120" windowWidth="27405" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>August</t>
+  </si>
+  <si>
+    <t>Sparkle Glitter-Blossom</t>
+  </si>
+  <si>
+    <t>Moonbeam Summer-Dancer</t>
   </si>
 </sst>
 </file>
@@ -401,6 +407,9 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -408,6 +417,9 @@
       </c>
       <c r="B3" t="s">
         <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
